--- a/TestData/Litigation_Case_Upload_Format (3).xlsx
+++ b/TestData/Litigation_Case_Upload_Format (3).xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Snehal\ComplianceLatest\Litigation-Project-main (1)\Litigation-Project-main\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Litigation-Project 10 April2024\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Court Cases" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Case Orders" sheetId="3" r:id="rId3"/>
     <sheet name="Case Payments" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
     <t>Type of Case
 (Defendant / Plaintiff)</t>
@@ -226,6 +226,21 @@
   </si>
   <si>
     <t>10-Dec-2023</t>
+  </si>
+  <si>
+    <t>FGGGD</t>
+  </si>
+  <si>
+    <t>DDDDD</t>
+  </si>
+  <si>
+    <t>DDDD</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
@@ -891,7 +906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1107,8 +1122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1157,12 +1172,22 @@
       <c r="B2" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32"/>
+      <c r="C2" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>64</v>
+      </c>
       <c r="F2" s="33"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="33"/>
+      <c r="G2" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3"/>
